--- a/Data Collections/Data Collection Sim 1.xlsx
+++ b/Data Collections/Data Collection Sim 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BBB25C-FFD3-4F39-933D-17E5DF2BAE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2277D60-34BD-41B6-BE70-73C7C5A1CDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="1980" windowWidth="17280" windowHeight="9024" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="5760" yWindow="3024" windowWidth="17280" windowHeight="9024" activeTab="5" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -657,10 +657,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -6137,7 +6137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
@@ -8673,15 +8673,15 @@
       <c r="G18" s="32">
         <v>0.71272637814499995</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="32">
@@ -8705,18 +8705,18 @@
       <c r="I19" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41" t="s">
+      <c r="M19" s="40"/>
+      <c r="N19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="40"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="32">
@@ -8740,18 +8740,18 @@
       <c r="I20">
         <v>10</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="40">
         <v>1.2</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41">
+      <c r="K20" s="40"/>
+      <c r="L20" s="40">
         <v>3</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41">
+      <c r="M20" s="40"/>
+      <c r="N20" s="40">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O20" s="41"/>
+      <c r="O20" s="40"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="32">
@@ -8775,18 +8775,18 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="40">
         <v>1.3</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40">
         <v>4</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41">
+      <c r="M21" s="40"/>
+      <c r="N21" s="40">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O21" s="41"/>
+      <c r="O21" s="40"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="32">
@@ -8810,18 +8810,18 @@
       <c r="I22">
         <v>50</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="40">
         <v>2.36</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41">
+      <c r="K22" s="40"/>
+      <c r="L22" s="40">
         <v>6</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41">
+      <c r="M22" s="40"/>
+      <c r="N22" s="40">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O22" s="41"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="32">
@@ -8845,18 +8845,18 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="40">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40">
         <v>8</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O23" s="41"/>
+      <c r="O23" s="40"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="32">
@@ -8880,18 +8880,18 @@
       <c r="I24">
         <v>1000</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="40">
         <v>3.55</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41">
+      <c r="K24" s="40"/>
+      <c r="L24" s="40">
         <v>12</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41">
+      <c r="M24" s="40"/>
+      <c r="N24" s="40">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O24" s="41"/>
+      <c r="O24" s="40"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="32">
@@ -10550,15 +10550,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N21:O21"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
@@ -10569,6 +10560,15 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38756,8 +38756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB8E32-D847-46DD-A9C2-FCA6CC8CF645}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40599,7 +40599,7 @@
         <v>0.55842029999999998</v>
       </c>
       <c r="E103" s="33">
-        <v>5.5994293510792259</v>
+        <v>5.5994289999999998</v>
       </c>
       <c r="F103">
         <v>54.509079999999997</v>
@@ -40615,6 +40615,9 @@
       <c r="D104">
         <v>8.6106790000000002E-2</v>
       </c>
+      <c r="E104">
+        <v>0.78107190000000004</v>
+      </c>
       <c r="F104">
         <v>7.4378399999999996</v>
       </c>
@@ -40629,6 +40632,9 @@
       <c r="D105">
         <v>1.6876619999999998E-2</v>
       </c>
+      <c r="E105">
+        <v>0.15308730000000001</v>
+      </c>
       <c r="F105">
         <v>1.4577899999999999</v>
       </c>
@@ -40643,6 +40649,9 @@
       <c r="D106">
         <v>100</v>
       </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
       <c r="F106">
         <v>100</v>
       </c>
@@ -40655,6 +40664,9 @@
         <v>0</v>
       </c>
       <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">

--- a/Data Collections/Data Collection Sim 1.xlsx
+++ b/Data Collections/Data Collection Sim 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\Data Collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2277D60-34BD-41B6-BE70-73C7C5A1CDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53646139-9E7A-47B9-9B29-7DBF73F3FCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3024" windowWidth="17280" windowHeight="9024" activeTab="5" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +645,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -657,10 +660,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2610,7 +2613,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2648,7 +2651,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2676,7 +2679,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2714,7 +2717,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6135,11 +6138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6214,7 +6217,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4">
@@ -6258,7 +6261,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E41" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E42" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -6300,7 +6303,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D37" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D38" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -6344,7 +6347,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -6387,7 +6390,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -6431,7 +6434,7 @@
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -6475,68 +6478,63 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="36">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" ref="D8" si="4">2*LOG(C8)/(C8-1)</f>
+        <v>1.4798839785301135E-3</v>
+      </c>
+      <c r="E8" s="36">
+        <f>LN(C8)/(C8)</f>
+        <v>1.7034386382832477E-3</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36">
+        <v>1</v>
+      </c>
+      <c r="I8" s="36">
+        <v>100</v>
+      </c>
+      <c r="J8" s="36">
+        <v>1</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="36">
+        <v>100</v>
+      </c>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
         <v>10000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>8.0008000800080011E-4</v>
       </c>
-      <c r="E8" s="1">
-        <f>LN(C8)/(C8)</f>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="28">
-        <v>100</v>
-      </c>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>500</v>
-      </c>
-      <c r="D9" s="1">
-        <f>2*LOG(C9)/(C9-1)</f>
-        <v>1.0817515047438954E-2</v>
-      </c>
       <c r="E9" s="1">
         <f>LN(C9)/(C9)</f>
-        <v>1.2429216196844383E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E9</f>
-        <v>1.2429216196844383E-2</v>
-      </c>
+        <v>9.210340371976184E-4</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="18"/>
       <c r="H9" s="28">
         <v>1</v>
@@ -6562,11 +6560,13 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>500</v>
       </c>
       <c r="D10" s="1">
@@ -6577,8 +6577,8 @@
         <f>LN(C10)/(C10)</f>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F10" s="28">
-        <f t="shared" ref="F10:F48" si="4">E10</f>
+      <c r="F10" s="1">
+        <f>E10</f>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G10" s="18"/>
@@ -6589,7 +6589,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>8</v>
@@ -6605,24 +6605,24 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="28">
         <v>500</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C11)/(C11-1)</f>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>LN(C11)/(C11)</f>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F11:F49" si="5">E11</f>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G11" s="18"/>
@@ -6633,7 +6633,7 @@
         <v>100</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
@@ -6650,98 +6650,99 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="28">
         <v>500</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="28">
         <v>1</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="1">
         <v>100</v>
       </c>
-      <c r="J12" s="22">
-        <v>20</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="28">
         <v>100</v>
       </c>
-      <c r="T12" s="22"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="5">
+        <v>4</v>
       </c>
       <c r="C13" s="28">
         <v>500</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="22">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="22">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="28">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="22">
         <v>100</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="22">
+        <v>20</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="28">
         <v>100</v>
       </c>
+      <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="28">
         <v>500</v>
@@ -6755,7 +6756,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G14" s="18"/>
@@ -6772,7 +6773,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>10</v>
@@ -6782,9 +6783,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="28">
         <v>500</v>
@@ -6798,7 +6799,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F15" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G15" s="18"/>
@@ -6815,7 +6816,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>10</v>
@@ -6825,9 +6826,9 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="28">
         <v>500</v>
@@ -6841,7 +6842,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F16" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G16" s="18"/>
@@ -6858,7 +6859,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -6868,9 +6869,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="28">
         <v>500</v>
@@ -6884,7 +6885,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G17" s="18"/>
@@ -6901,7 +6902,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>10</v>
@@ -6910,10 +6911,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
       <c r="B18" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="28">
         <v>500</v>
@@ -6927,7 +6928,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G18" s="18"/>
@@ -6944,7 +6945,7 @@
         <v>8</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>10</v>
@@ -6953,12 +6954,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="6">
+        <v>6</v>
       </c>
       <c r="C19" s="28">
         <v>500</v>
@@ -6972,7 +6971,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G19" s="18"/>
@@ -6989,7 +6988,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>10</v>
@@ -6998,11 +6997,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="16">
+    <row r="20" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
         <v>1</v>
       </c>
       <c r="C20" s="28">
@@ -7017,7 +7016,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G20" s="18"/>
@@ -7042,14 +7041,13 @@
       <c r="N20" s="28">
         <v>100</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="B21" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="28">
         <v>500</v>
@@ -7063,7 +7061,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G21" s="18"/>
@@ -7089,15 +7087,13 @@
         <v>100</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="16">
+        <v>2</v>
       </c>
       <c r="C22" s="28">
         <v>500</v>
@@ -7111,7 +7107,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G22" s="18"/>
@@ -7125,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>7</v>
@@ -7136,11 +7132,16 @@
       <c r="N22" s="28">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="11">
-        <v>2</v>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
       </c>
       <c r="C23" s="28">
         <v>500</v>
@@ -7154,7 +7155,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G23" s="18"/>
@@ -7168,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>7</v>
@@ -7181,9 +7182,9 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="10">
-        <v>3</v>
+      <c r="A24" s="37"/>
+      <c r="B24" s="11">
+        <v>2</v>
       </c>
       <c r="C24" s="28">
         <v>500</v>
@@ -7197,7 +7198,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G24" s="18"/>
@@ -7211,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
@@ -7224,9 +7225,9 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="11">
-        <v>4</v>
+      <c r="A25" s="37"/>
+      <c r="B25" s="10">
+        <v>3</v>
       </c>
       <c r="C25" s="28">
         <v>500</v>
@@ -7240,7 +7241,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G25" s="18"/>
@@ -7254,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>7</v>
@@ -7267,9 +7268,9 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="10">
-        <v>5</v>
+      <c r="A26" s="37"/>
+      <c r="B26" s="11">
+        <v>4</v>
       </c>
       <c r="C26" s="28">
         <v>500</v>
@@ -7283,7 +7284,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G26" s="18"/>
@@ -7297,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>7</v>
@@ -7310,17 +7311,15 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
+      <c r="A27" s="37"/>
+      <c r="B27" s="10">
+        <v>5</v>
       </c>
       <c r="C27" s="28">
         <v>500</v>
       </c>
       <c r="D27" s="1">
-        <f>2*LOG(C27)/(C27-1)</f>
+        <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E27" s="1">
@@ -7328,11 +7327,11 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="1">
+      <c r="H27" s="28">
         <v>1</v>
       </c>
       <c r="I27" s="1">
@@ -7342,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>7</v>
@@ -7353,14 +7352,13 @@
       <c r="N27" s="28">
         <v>100</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="B28" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="28">
         <v>500</v>
@@ -7374,12 +7372,12 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F28" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -7399,17 +7397,20 @@
       <c r="N28" s="28">
         <v>100</v>
       </c>
+      <c r="P28" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="28">
         <v>500</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C29)/(C29-1)</f>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E29" s="1">
@@ -7417,12 +7418,12 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F29" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -7444,9 +7445,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="28">
         <v>500</v>
@@ -7460,12 +7461,12 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F30" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -7487,9 +7488,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="28">
         <v>500</v>
@@ -7503,12 +7504,12 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -7530,9 +7531,9 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="28">
         <v>500</v>
@@ -7546,12 +7547,12 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1">
         <v>100</v>
@@ -7573,11 +7574,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="14">
-        <v>1</v>
+      <c r="A33" s="37"/>
+      <c r="B33" s="12">
+        <v>6</v>
       </c>
       <c r="C33" s="28">
         <v>500</v>
@@ -7591,12 +7590,12 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I33" s="1">
         <v>100</v>
@@ -7611,16 +7610,18 @@
         <v>7</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="N33" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="37" t="s">
+        <v>51</v>
+      </c>
       <c r="B34" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="28">
         <v>500</v>
@@ -7634,11 +7635,11 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F34" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="28">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34" s="1">
@@ -7654,16 +7655,16 @@
         <v>7</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="28">
         <v>500</v>
@@ -7677,7 +7678,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F35" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G35" s="18"/>
@@ -7697,16 +7698,16 @@
         <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N35" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="28">
         <v>500</v>
@@ -7720,7 +7721,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F36" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G36" s="18"/>
@@ -7740,16 +7741,16 @@
         <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N36" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="28">
         <v>500</v>
@@ -7763,7 +7764,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F37" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G37" s="18"/>
@@ -7783,60 +7784,61 @@
         <v>7</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N37" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="19">
-        <v>1</v>
+      <c r="A38" s="37"/>
+      <c r="B38" s="14">
+        <v>5</v>
       </c>
       <c r="C38" s="28">
         <v>500</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="18">
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0817515047438954E-2</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G38" s="18">
-        <v>1</v>
-      </c>
+      <c r="G38" s="18"/>
       <c r="H38" s="28">
         <v>1</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="1">
         <v>100</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="24" t="s">
-        <v>10</v>
+      <c r="M38" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="N38" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
+      <c r="A39" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="B39" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="28">
         <v>500</v>
@@ -7847,11 +7849,11 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G39" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="28">
         <v>1</v>
@@ -7876,9 +7878,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="28">
         <v>500</v>
@@ -7889,11 +7891,11 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F40" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G40" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="28">
         <v>1</v>
@@ -7918,9 +7920,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="28">
         <v>500</v>
@@ -7931,11 +7933,11 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G41" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H41" s="28">
         <v>1</v>
@@ -7960,24 +7962,24 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="28">
         <v>500</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="18">
-        <f t="shared" ref="E42:E48" si="5">LN(C42)/(C42)</f>
+        <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F42" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G42" s="18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H42" s="28">
         <v>1</v>
@@ -8001,55 +8003,54 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="23">
-        <v>1</v>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="19">
+        <v>5</v>
       </c>
       <c r="C43" s="28">
         <v>500</v>
       </c>
-      <c r="D43" s="20">
-        <f>2*LOG(C43)/(C43-1)</f>
-        <v>1.0817515047438954E-2</v>
-      </c>
-      <c r="E43" s="20">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
+        <f t="shared" ref="E43:E49" si="6">LN(C43)/(C43)</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F43" s="28">
         <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F43" s="28">
-        <f t="shared" si="4"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20">
+      <c r="G43" s="18">
+        <v>100</v>
+      </c>
+      <c r="H43" s="28">
         <v>1</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>100</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="18">
         <v>1</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="M43" s="20" t="s">
+      <c r="L43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+    <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="B44" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="28">
         <v>500</v>
@@ -8059,16 +8060,16 @@
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E44" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F44" s="28">
         <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F44" s="28">
-        <f t="shared" si="4"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="20">
         <v>100</v>
@@ -8085,33 +8086,33 @@
       <c r="M44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="28">
         <v>500</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" ref="D45:D47" si="6">2*LOG(C45)/(C45-1)</f>
+        <f>2*LOG(C45)/(C45-1)</f>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E45" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F45" s="28">
         <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F45" s="28">
-        <f t="shared" si="4"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" s="20">
         <v>100</v>
@@ -8133,28 +8134,28 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="28">
         <v>500</v>
       </c>
       <c r="D46" s="20">
+        <f t="shared" ref="D46:D48" si="7">2*LOG(C46)/(C46-1)</f>
+        <v>1.0817515047438954E-2</v>
+      </c>
+      <c r="E46" s="20">
         <f t="shared" si="6"/>
-        <v>1.0817515047438954E-2</v>
-      </c>
-      <c r="E46" s="20">
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F46" s="28">
         <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F46" s="28">
-        <f t="shared" si="4"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I46" s="20">
         <v>100</v>
@@ -8176,42 +8177,42 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="28">
         <v>500</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="20">
+        <f t="shared" si="7"/>
+        <v>1.0817515047438954E-2</v>
+      </c>
+      <c r="E47" s="20">
         <f t="shared" si="6"/>
-        <v>1.0817515047438954E-2</v>
-      </c>
-      <c r="E47" s="22">
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F47" s="28">
         <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F47" s="28">
-        <f t="shared" si="4"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22">
-        <v>16</v>
-      </c>
-      <c r="I47" s="22">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20">
+        <v>8</v>
+      </c>
+      <c r="I47" s="20">
         <v>100</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="20">
         <v>1</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M47" s="22" t="s">
+      <c r="M47" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N47" s="22">
@@ -8219,25 +8220,28 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="28">
         <v>500</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0817515047438954E-2</v>
+      </c>
       <c r="E48" s="22">
+        <f t="shared" si="6"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F48" s="28">
         <f t="shared" si="5"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F48" s="28">
-        <f t="shared" si="4"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I48" s="22">
         <v>100</v>
@@ -8258,36 +8262,76 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37"/>
+      <c r="B49" s="23">
+        <v>6</v>
+      </c>
+      <c r="C49" s="28">
+        <v>500</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22">
+        <f t="shared" si="6"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F49" s="28">
+        <f t="shared" si="5"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22">
+        <v>32</v>
+      </c>
+      <c r="I49" s="22">
+        <v>100</v>
+      </c>
+      <c r="J49" s="22">
+        <v>1</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8298,8 +8342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8311,7 +8355,7 @@
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -8333,8 +8377,14 @@
       <c r="G1" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="5">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8353,8 +8403,11 @@
       <c r="G2" s="32">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1.3080484660180001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -8373,8 +8426,11 @@
       <c r="G3" s="32">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0.87044847646400003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8393,8 +8449,11 @@
       <c r="G4" s="32">
         <v>0.61141642450699996</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1.391032682524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8414,7 +8473,7 @@
         <v>0.61194130767800003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8434,7 +8493,7 @@
         <v>0.50833333333499997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -8454,7 +8513,7 @@
         <v>0.50833333333499997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8474,7 +8533,7 @@
         <v>0.61234377453599997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8494,7 +8553,7 @@
         <v>0.61183153308799998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -8514,7 +8573,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="32">
         <v>0.406666666668</v>
       </c>
@@ -8534,7 +8593,7 @@
         <v>0.50868579685799997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -8554,7 +8613,7 @@
         <v>0.50833333333499997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -8574,7 +8633,7 @@
         <v>0.50833333333499997</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -8594,7 +8653,7 @@
         <v>0.61427221518800001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -8614,7 +8673,7 @@
         <v>0.61229763948299998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -8705,18 +8764,18 @@
       <c r="I19" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40" t="s">
+      <c r="K19" s="42"/>
+      <c r="L19" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40" t="s">
+      <c r="M19" s="42"/>
+      <c r="N19" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="O19" s="40"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="32">
@@ -8740,18 +8799,18 @@
       <c r="I20">
         <v>10</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="42">
         <v>1.2</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40">
+      <c r="K20" s="42"/>
+      <c r="L20" s="42">
         <v>3</v>
       </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40">
+      <c r="M20" s="42"/>
+      <c r="N20" s="42">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O20" s="40"/>
+      <c r="O20" s="42"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="32">
@@ -8775,18 +8834,18 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="42">
         <v>1.3</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40">
+      <c r="K21" s="42"/>
+      <c r="L21" s="42">
         <v>4</v>
       </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40">
+      <c r="M21" s="42"/>
+      <c r="N21" s="42">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O21" s="40"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="32">
@@ -8810,18 +8869,18 @@
       <c r="I22">
         <v>50</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="42">
         <v>2.36</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40">
+      <c r="K22" s="42"/>
+      <c r="L22" s="42">
         <v>6</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40">
+      <c r="M22" s="42"/>
+      <c r="N22" s="42">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O22" s="40"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="32">
@@ -8845,18 +8904,18 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="42">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40">
+      <c r="K23" s="42"/>
+      <c r="L23" s="42">
         <v>8</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40">
+      <c r="M23" s="42"/>
+      <c r="N23" s="42">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O23" s="40"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="32">
@@ -8880,18 +8939,18 @@
       <c r="I24">
         <v>1000</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="42">
         <v>3.55</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40">
+      <c r="K24" s="42"/>
+      <c r="L24" s="42">
         <v>12</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40">
+      <c r="M24" s="42"/>
+      <c r="N24" s="42">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O24" s="40"/>
+      <c r="O24" s="42"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="32">
@@ -9053,7 +9112,7 @@
         <v>0.50841136956800004</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9073,7 +9132,7 @@
         <v>0.61098778402999998</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9093,7 +9152,7 @@
         <v>0.50865264980299996</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="32">
         <v>0.406666666668</v>
       </c>
@@ -9113,7 +9172,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="32">
         <v>0.406666666668</v>
       </c>
@@ -9133,7 +9192,7 @@
         <v>0.71331644886300005</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -9153,7 +9212,7 @@
         <v>0.61124568276400004</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -9173,7 +9232,7 @@
         <v>0.406666666668</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="32">
         <v>0.40666666667000001</v>
       </c>
@@ -9193,7 +9252,7 @@
         <v>0.50837274181900005</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9213,7 +9272,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9233,7 +9292,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9252,11 +9311,8 @@
       <c r="G42" s="32">
         <v>0.30500000000100003</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9275,11 +9331,8 @@
       <c r="G43" s="32">
         <v>0.50833333333499997</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9298,11 +9351,8 @@
       <c r="G44" s="32">
         <v>0.50833333333499997</v>
       </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="32">
         <v>0.50833333333499997</v>
       </c>
@@ -9321,11 +9371,8 @@
       <c r="G45" s="32">
         <v>0.61000000000200005</v>
       </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="32">
         <v>0.40666666667000001</v>
       </c>
@@ -9344,11 +9391,8 @@
       <c r="G46" s="32">
         <v>0.71616758817899995</v>
       </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="32">
         <v>0.30500000000100003</v>
       </c>
@@ -9368,7 +9412,7 @@
         <v>0.71387540079400003</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="32">
         <v>0.406666666668</v>
       </c>
@@ -10348,7 +10392,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>0.406666666668</v>
       </c>
@@ -10368,7 +10412,7 @@
         <v>0.401087343717</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>0.30500000000100003</v>
       </c>
@@ -10388,7 +10432,7 @@
         <v>0.61124217580999995</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>0.30500000000100003</v>
       </c>
@@ -10408,7 +10452,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>0.406666666668</v>
       </c>
@@ -10428,7 +10472,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>0.406666666668</v>
       </c>
@@ -10448,7 +10492,7 @@
         <v>0.61000000000200005</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>0.40158329999999998</v>
       </c>
@@ -10467,8 +10511,11 @@
       <c r="G103">
         <v>0.58937759999999995</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>1.189843</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>8.4722220000000001E-2</v>
       </c>
@@ -10487,8 +10534,11 @@
       <c r="G104">
         <v>8.4964360000000003E-2</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>0.27969870000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>1.6605249999999998E-2</v>
       </c>
@@ -10507,8 +10557,11 @@
       <c r="G105">
         <v>1.6652710000000001E-2</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>5.4819930000000003E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>100</v>
       </c>
@@ -10527,8 +10580,11 @@
       <c r="G106">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>0</v>
       </c>
@@ -10547,9 +10603,21 @@
       <c r="G107">
         <v>0</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
@@ -10560,15 +10628,6 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38756,7 +38815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB8E32-D847-46DD-A9C2-FCA6CC8CF645}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>

--- a/Data Collections/Data Collection Sim 1.xlsx
+++ b/Data Collections/Data Collection Sim 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53646139-9E7A-47B9-9B29-7DBF73F3FCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7E3D1-6BB0-46F8-B4E0-E3580CC1139B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -55,9 +55,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>Evil Node Sleeping Transactions</t>
-  </si>
-  <si>
-    <t>Test Number</t>
   </si>
   <si>
     <t>Initial Coins</t>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>Too long</t>
+  </si>
+  <si>
+    <t>Experiment Number</t>
   </si>
 </sst>
 </file>
@@ -660,10 +660,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2613,7 +2613,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2651,7 +2651,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2679,7 +2679,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2717,7 +2717,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6140,15 +6140,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -6168,57 +6168,57 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -6248,13 +6248,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1">
         <v>100</v>
@@ -6290,13 +6290,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="28">
         <v>100</v>
@@ -6332,13 +6332,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="28">
         <v>100</v>
@@ -6376,13 +6376,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" s="28">
         <v>100</v>
@@ -6420,13 +6420,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" s="28">
         <v>100</v>
@@ -6464,13 +6464,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="28">
         <v>100</v>
@@ -6505,13 +6505,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" s="36">
         <v>100</v>
@@ -6546,13 +6546,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" s="28">
         <v>100</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -6592,13 +6592,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" s="28">
         <v>100</v>
@@ -6636,13 +6636,13 @@
         <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="28">
         <v>100</v>
@@ -6680,13 +6680,13 @@
         <v>10</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12" s="28">
         <v>100</v>
@@ -6724,13 +6724,13 @@
         <v>20</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13" s="28">
         <v>100</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -6770,13 +6770,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="28">
         <v>100</v>
@@ -6813,13 +6813,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15" s="28">
         <v>100</v>
@@ -6856,13 +6856,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="28">
         <v>100</v>
@@ -6899,13 +6899,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="28">
         <v>100</v>
@@ -6942,13 +6942,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="28">
         <v>100</v>
@@ -6985,13 +6985,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="28">
         <v>100</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -7030,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="28">
         <v>100</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
@@ -7075,19 +7075,19 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21" s="28">
         <v>100</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7121,24 +7121,24 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22" s="28">
         <v>100</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
@@ -7169,13 +7169,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23" s="28">
         <v>100</v>
@@ -7212,13 +7212,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N24" s="28">
         <v>100</v>
@@ -7255,13 +7255,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25" s="28">
         <v>100</v>
@@ -7298,13 +7298,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N26" s="28">
         <v>100</v>
@@ -7341,13 +7341,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N27" s="28">
         <v>100</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="12">
         <v>1</v>
@@ -7386,19 +7386,19 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N28" s="28">
         <v>100</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -7432,13 +7432,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N29" s="28">
         <v>100</v>
@@ -7475,13 +7475,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N30" s="28">
         <v>100</v>
@@ -7518,13 +7518,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N31" s="28">
         <v>100</v>
@@ -7561,13 +7561,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N32" s="28">
         <v>100</v>
@@ -7604,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N33" s="28">
         <v>100</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="14">
         <v>1</v>
@@ -7649,13 +7649,13 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N34" s="28">
         <v>100</v>
@@ -7692,13 +7692,13 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N35" s="28">
         <v>100</v>
@@ -7735,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N36" s="28">
         <v>100</v>
@@ -7778,13 +7778,13 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="28">
         <v>100</v>
@@ -7821,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" s="28">
         <v>100</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="19">
         <v>1</v>
@@ -7865,13 +7865,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N39" s="28">
         <v>100</v>
@@ -7907,13 +7907,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N40" s="28">
         <v>100</v>
@@ -7949,13 +7949,13 @@
         <v>1</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N41" s="28">
         <v>100</v>
@@ -7991,13 +7991,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N42" s="28">
         <v>100</v>
@@ -8033,13 +8033,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N43" s="28">
         <v>100</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="23">
         <v>1</v>
@@ -8078,13 +8078,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N44" s="20">
         <v>100</v>
@@ -8121,13 +8121,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N45" s="22">
         <v>100</v>
@@ -8164,13 +8164,13 @@
         <v>1</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" s="22">
         <v>100</v>
@@ -8207,13 +8207,13 @@
         <v>1</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N47" s="22">
         <v>100</v>
@@ -8250,13 +8250,13 @@
         <v>1</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N48" s="22">
         <v>100</v>
@@ -8290,13 +8290,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N49" s="22">
         <v>100</v>
@@ -8342,7 +8342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
@@ -8357,7 +8357,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -8732,15 +8732,15 @@
       <c r="G18" s="32">
         <v>0.71272637814499995</v>
       </c>
-      <c r="I18" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="I18" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="32">
@@ -8762,20 +8762,20 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42" t="s">
+      <c r="M19" s="41"/>
+      <c r="N19" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="42"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="32">
@@ -8799,18 +8799,18 @@
       <c r="I20">
         <v>10</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>1.2</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42">
+      <c r="K20" s="41"/>
+      <c r="L20" s="41">
         <v>3</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42">
+      <c r="M20" s="41"/>
+      <c r="N20" s="41">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O20" s="42"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="32">
@@ -8834,18 +8834,18 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>1.3</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42">
+      <c r="K21" s="41"/>
+      <c r="L21" s="41">
         <v>4</v>
       </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42">
+      <c r="M21" s="41"/>
+      <c r="N21" s="41">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O21" s="42"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="32">
@@ -8869,18 +8869,18 @@
       <c r="I22">
         <v>50</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="41">
         <v>2.36</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42">
+      <c r="K22" s="41"/>
+      <c r="L22" s="41">
         <v>6</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42">
+      <c r="M22" s="41"/>
+      <c r="N22" s="41">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O22" s="42"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="32">
@@ -8904,18 +8904,18 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41">
         <v>8</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42">
+      <c r="M23" s="41"/>
+      <c r="N23" s="41">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O23" s="42"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="32">
@@ -8939,18 +8939,18 @@
       <c r="I24">
         <v>1000</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>3.55</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42">
+      <c r="K24" s="41"/>
+      <c r="L24" s="41">
         <v>12</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42">
+      <c r="M24" s="41"/>
+      <c r="N24" s="41">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O24" s="42"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="32">
@@ -10609,15 +10609,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N21:O21"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
@@ -10628,6 +10619,15 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10651,7 +10651,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -25865,7 +25865,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -28076,97 +28076,97 @@
   <sheetData>
     <row r="1" spans="1:49" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
       <c r="AC4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" t="s">
-        <v>64</v>
-      </c>
       <c r="AF4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR4" t="s">
         <v>74</v>
       </c>
-      <c r="AG4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>75</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>76</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
@@ -28233,7 +28233,7 @@
         <v>1.0042780206055512E-2</v>
       </c>
       <c r="AL5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM5">
         <f>COUNT(AD5:AD54)</f>
@@ -28326,7 +28326,7 @@
         <v>9.9572197939444881E-3</v>
       </c>
       <c r="AL6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM6">
         <f>AVERAGE(AD5:AD54)</f>
@@ -28419,7 +28419,7 @@
         <v>2.9957219793944487E-2</v>
       </c>
       <c r="AL7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM7">
         <f>_xlfn.STDEV.S(AD5:AD54)</f>
@@ -28448,7 +28448,7 @@
         <v>4.9957219793944484E-2</v>
       </c>
       <c r="AV7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW7">
         <f>MAX(AT5:AT54)</f>
@@ -28519,7 +28519,7 @@
         <v>6.223260863025018E-2</v>
       </c>
       <c r="AL8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM8">
         <f>MAX(AJ5:AJ54)</f>
@@ -28548,7 +28548,7 @@
         <v>4.2232608630250176E-2</v>
       </c>
       <c r="AV8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW8">
         <f>0.18845</f>
@@ -28705,7 +28705,7 @@
         <v>2.2232608630250172E-2</v>
       </c>
       <c r="AL10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM10">
         <f>0.18845</f>
@@ -32520,14 +32520,14 @@
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" s="7">
         <f>AVERAGE(D5:D54)</f>
         <v>0.91610186017854023</v>
       </c>
       <c r="O55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P55" s="7">
         <f>AVERAGE(P5:P54)</f>
@@ -32536,14 +32536,14 @@
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <f>STDEV(D5:D54)</f>
         <v>0.26282524238527133</v>
       </c>
       <c r="O56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P56">
         <f>_xlfn.STDEV.S(P5:P54)</f>
@@ -32552,7 +32552,7 @@
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <f>SKEW(D5:D54)</f>
@@ -32561,60 +32561,60 @@
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
         <v>25</v>
       </c>
-      <c r="E61" t="s">
-        <v>26</v>
-      </c>
       <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" t="s">
         <v>30</v>
       </c>
-      <c r="P61" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>31</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>32</v>
       </c>
-      <c r="S61" t="s">
-        <v>33</v>
-      </c>
       <c r="AC61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE61" t="s">
         <v>63</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>64</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>65</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>66</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
         <v>67</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.3">
@@ -32673,7 +32673,7 @@
         <v>1.3589932998991494E-2</v>
       </c>
       <c r="AL62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM62">
         <f>COUNT(AD62:AD161)</f>
@@ -32736,7 +32736,7 @@
         <v>3.5899329989914942E-3</v>
       </c>
       <c r="AL63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM63">
         <f>AVERAGE(AD62:AD161)</f>
@@ -32799,7 +32799,7 @@
         <v>6.410067001008506E-3</v>
       </c>
       <c r="AL64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM64">
         <f>_xlfn.STDEV.S(AD62:AD161)</f>
@@ -32862,7 +32862,7 @@
         <v>1.6410067001008506E-2</v>
       </c>
       <c r="AL65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM65">
         <f>MAX(AJ62:AJ161)</f>
@@ -32981,7 +32981,7 @@
         <v>3.641006700100851E-2</v>
       </c>
       <c r="AL67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM67">
         <f>1.3581/SQRT(AM62)</f>
@@ -38258,14 +38258,14 @@
     </row>
     <row r="162" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D162" s="7">
         <f>AVERAGE(D62:D161)</f>
         <v>0.90449402464180051</v>
       </c>
       <c r="O162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P162" s="7">
         <f>AVERAGE(P62:P161)</f>
@@ -38274,14 +38274,14 @@
     </row>
     <row r="163" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163">
         <f>STDEV(D62:D161)</f>
         <v>0.27135102181909121</v>
       </c>
       <c r="O163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P163">
         <f>STDEV(P62:P161)</f>
@@ -38290,7 +38290,7 @@
     </row>
     <row r="164" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164">
         <f>SKEW(D62:D161)</f>
@@ -38827,7 +38827,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -40754,7 +40754,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -40798,7 +40798,7 @@
         <v>0.610344444446</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -43644,7 +43644,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -45586,7 +45586,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>

--- a/Data Collections/Data Collection Sim 1.xlsx
+++ b/Data Collections/Data Collection Sim 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7E3D1-6BB0-46F8-B4E0-E3580CC1139B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C8A6B-3406-4E8C-847F-18297EE4EB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -321,6 +321,9 @@
   <si>
     <t>Experiment Number</t>
   </si>
+  <si>
+    <t>12 - Tribler's Network</t>
+  </si>
 </sst>
 </file>
 
@@ -587,7 +590,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +651,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,11 +666,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
@@ -6138,11 +6149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50:V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6217,7 +6228,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4">
@@ -6261,7 +6272,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -6303,7 +6314,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -6347,7 +6358,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -6390,7 +6401,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -6434,7 +6445,7 @@
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -6478,7 +6489,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -6519,7 +6530,7 @@
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -6560,7 +6571,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5">
@@ -6606,7 +6617,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -6650,7 +6661,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -6694,7 +6705,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="5">
         <v>4</v>
       </c>
@@ -6738,7 +6749,7 @@
       <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6">
@@ -6783,7 +6794,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="6">
         <v>2</v>
       </c>
@@ -6826,7 +6837,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6">
         <v>3</v>
       </c>
@@ -6869,7 +6880,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6">
         <v>4</v>
       </c>
@@ -6912,7 +6923,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="6">
         <v>5</v>
       </c>
@@ -6955,7 +6966,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="6">
         <v>6</v>
       </c>
@@ -7043,7 +7054,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="16">
@@ -7091,7 +7102,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="16">
         <v>2</v>
       </c>
@@ -7137,7 +7148,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="10">
@@ -7182,7 +7193,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="11">
         <v>2</v>
       </c>
@@ -7225,7 +7236,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="10">
         <v>3</v>
       </c>
@@ -7268,7 +7279,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="11">
         <v>4</v>
       </c>
@@ -7311,7 +7322,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="10">
         <v>5</v>
       </c>
@@ -7354,7 +7365,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="12">
@@ -7402,7 +7413,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="12">
         <v>2</v>
       </c>
@@ -7445,7 +7456,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="12">
         <v>3</v>
       </c>
@@ -7488,7 +7499,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="12">
         <v>4</v>
       </c>
@@ -7531,7 +7542,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="12">
         <v>5</v>
       </c>
@@ -7574,7 +7585,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="12">
         <v>6</v>
       </c>
@@ -7617,7 +7628,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="14">
@@ -7662,7 +7673,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="14">
         <v>2</v>
       </c>
@@ -7705,7 +7716,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="14">
         <v>3</v>
       </c>
@@ -7748,7 +7759,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="14">
         <v>4</v>
       </c>
@@ -7791,7 +7802,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="14">
         <v>5</v>
       </c>
@@ -7834,7 +7845,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="19">
@@ -7878,7 +7889,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="19">
         <v>2</v>
       </c>
@@ -7920,7 +7931,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="19">
         <v>3</v>
       </c>
@@ -7962,7 +7973,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="19">
         <v>4</v>
       </c>
@@ -8004,7 +8015,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="19">
         <v>5</v>
       </c>
@@ -8046,7 +8057,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="23">
@@ -8091,7 +8102,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="23">
         <v>2</v>
       </c>
@@ -8134,7 +8145,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="23">
         <v>3</v>
       </c>
@@ -8177,7 +8188,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="23">
         <v>4</v>
       </c>
@@ -8220,7 +8231,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="23">
         <v>5</v>
       </c>
@@ -8262,8 +8273,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
       <c r="B49" s="23">
         <v>6</v>
       </c>
@@ -8302,21 +8313,46 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="45">
+        <v>1</v>
+      </c>
+      <c r="C50" s="37">
+        <v>999</v>
+      </c>
+      <c r="H50" s="37">
+        <v>2</v>
+      </c>
+      <c r="I50" s="37">
+        <v>100</v>
+      </c>
+      <c r="J50" s="37">
+        <v>1</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="37">
+        <v>10</v>
+      </c>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="37"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -8764,18 +8800,18 @@
       <c r="I19" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41" t="s">
+      <c r="K19" s="43"/>
+      <c r="L19" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41" t="s">
+      <c r="M19" s="43"/>
+      <c r="N19" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="41"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="32">
@@ -8799,18 +8835,18 @@
       <c r="I20">
         <v>10</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="43">
         <v>1.2</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41">
+      <c r="K20" s="43"/>
+      <c r="L20" s="43">
         <v>3</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41">
+      <c r="M20" s="43"/>
+      <c r="N20" s="43">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O20" s="41"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="32">
@@ -8834,18 +8870,18 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="43">
         <v>1.3</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41">
+      <c r="K21" s="43"/>
+      <c r="L21" s="43">
         <v>4</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41">
+      <c r="M21" s="43"/>
+      <c r="N21" s="43">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O21" s="41"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="32">
@@ -8869,18 +8905,18 @@
       <c r="I22">
         <v>50</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="43">
         <v>2.36</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41">
+      <c r="K22" s="43"/>
+      <c r="L22" s="43">
         <v>6</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41">
+      <c r="M22" s="43"/>
+      <c r="N22" s="43">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O22" s="41"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="32">
@@ -8904,18 +8940,18 @@
       <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="43">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41">
+      <c r="K23" s="43"/>
+      <c r="L23" s="43">
         <v>8</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41">
+      <c r="M23" s="43"/>
+      <c r="N23" s="43">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O23" s="41"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="32">
@@ -8939,18 +8975,18 @@
       <c r="I24">
         <v>1000</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="43">
         <v>3.55</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41">
+      <c r="K24" s="43"/>
+      <c r="L24" s="43">
         <v>12</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41">
+      <c r="M24" s="43"/>
+      <c r="N24" s="43">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O24" s="41"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="32">
@@ -10609,6 +10645,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
@@ -10619,15 +10664,6 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
